--- a/labwork_2/machine.xlsx
+++ b/labwork_2/machine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daoth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\B2\ML2\labwork_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{244026B3-A93A-4EC6-923F-096C46E68889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6E8B5-687D-4EC1-9342-82727E0AA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2148" yWindow="2868" windowWidth="17280" windowHeight="8880" xr2:uid="{BDFADD24-8F77-42B4-B4F8-0B17AFA0163E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDFADD24-8F77-42B4-B4F8-0B17AFA0163E}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="2" r:id="rId1"/>
@@ -854,7 +854,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -899,19 +902,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE9CFE7-65BD-4B68-BCC6-4293C14CAB12}" name="machine" displayName="machine" ref="A1:J211" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE9CFE7-65BD-4B68-BCC6-4293C14CAB12}" name="machine" displayName="machine" ref="A1:J211" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:J211" xr:uid="{FBE9CFE7-65BD-4B68-BCC6-4293C14CAB12}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C8A18871-330B-49E4-9548-E64A6D990D45}" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5ED6FEB4-5A9D-4E43-92AF-DD61473EDA76}" name="Column2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{16C53853-3EB1-423F-8DD9-8230743547A8}" name="Column3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{122CE432-33D8-4E02-A543-8CEB900A9A6D}" name="Column4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{9CF1C6CA-B2CA-4B89-8380-AEE896344D4F}" name="Column5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{53BA7146-F0B3-4F63-8D49-5E47FA1C46D0}" name="Column6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{4FF1A8DB-624B-4123-A716-0908209DBEE5}" name="Column7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E60F7BA9-0EA5-45F8-8D4A-D389E3EACBF4}" name="Column8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8BC8B568-96D7-4D64-B997-3A3D029FD4DB}" name="Column9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{697ABB58-1C56-426D-AB32-1219CF2C7B23}" name="Column10" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C8A18871-330B-49E4-9548-E64A6D990D45}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5ED6FEB4-5A9D-4E43-92AF-DD61473EDA76}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{16C53853-3EB1-423F-8DD9-8230743547A8}" name="Column3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{122CE432-33D8-4E02-A543-8CEB900A9A6D}" name="Column4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{9CF1C6CA-B2CA-4B89-8380-AEE896344D4F}" name="Column5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{53BA7146-F0B3-4F63-8D49-5E47FA1C46D0}" name="Column6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4FF1A8DB-624B-4123-A716-0908209DBEE5}" name="Column7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E60F7BA9-0EA5-45F8-8D4A-D389E3EACBF4}" name="Column8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8BC8B568-96D7-4D64-B997-3A3D029FD4DB}" name="Column9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{697ABB58-1C56-426D-AB32-1219CF2C7B23}" name="Column10" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,52 +1220,52 @@
   <dimension ref="A1:S211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>90</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>94</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>102</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>102</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>102</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>102</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>107</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>107</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>107</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>107</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>121</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>121</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>121</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>121</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>121</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -5134,7 +5137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>154</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>154</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>154</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>154</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>154</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>154</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>168</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>170</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>170</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>170</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>170</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>170</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>170</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>170</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>170</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>170</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>170</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>170</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>170</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>170</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>170</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>170</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>190</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>190</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>190</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>190</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>190</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>190</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>190</v>
       </c>
@@ -6542,7 +6545,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>190</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>190</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>190</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>190</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>190</v>
       </c>
@@ -6702,7 +6705,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>190</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>204</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>204</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>204</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>208</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>208</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>208</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>212</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>212</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>212</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>212</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>212</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>218</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>218</v>
       </c>
@@ -7150,7 +7153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>218</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>218</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>218</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>218</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>218</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>218</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>218</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>218</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>218</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>218</v>
       </c>
@@ -7470,7 +7473,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>231</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>231</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>231</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>231</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>231</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>231</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>231</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>231</v>
       </c>
@@ -7726,7 +7729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>231</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>231</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>231</v>
       </c>
@@ -7822,7 +7825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>231</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>231</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>245</v>
       </c>
@@ -7918,7 +7921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>246</v>
       </c>
@@ -7950,7 +7953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>246</v>
       </c>
@@ -7985,6 +7988,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B15" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/labwork_2/machine.xlsx
+++ b/labwork_2/machine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\B2\ML2\labwork_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6E8B5-687D-4EC1-9342-82727E0AA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8D444F-5C76-441B-A092-67426894800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDFADD24-8F77-42B4-B4F8-0B17AFA0163E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="262">
   <si>
     <t>Column1</t>
   </si>
@@ -811,6 +811,15 @@
   </si>
   <si>
     <t>ERP</t>
+  </si>
+  <si>
+    <t>STDEV.P</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -826,15 +835,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -842,22 +857,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -888,6 +926,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -902,19 +943,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE9CFE7-65BD-4B68-BCC6-4293C14CAB12}" name="machine" displayName="machine" ref="A1:J211" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE9CFE7-65BD-4B68-BCC6-4293C14CAB12}" name="machine" displayName="machine" ref="A1:J211" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:J211" xr:uid="{FBE9CFE7-65BD-4B68-BCC6-4293C14CAB12}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C8A18871-330B-49E4-9548-E64A6D990D45}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5ED6FEB4-5A9D-4E43-92AF-DD61473EDA76}" name="Column2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{16C53853-3EB1-423F-8DD9-8230743547A8}" name="Column3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{122CE432-33D8-4E02-A543-8CEB900A9A6D}" name="Column4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{9CF1C6CA-B2CA-4B89-8380-AEE896344D4F}" name="Column5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{53BA7146-F0B3-4F63-8D49-5E47FA1C46D0}" name="Column6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4FF1A8DB-624B-4123-A716-0908209DBEE5}" name="Column7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E60F7BA9-0EA5-45F8-8D4A-D389E3EACBF4}" name="Column8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8BC8B568-96D7-4D64-B997-3A3D029FD4DB}" name="Column9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{697ABB58-1C56-426D-AB32-1219CF2C7B23}" name="Column10" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C8A18871-330B-49E4-9548-E64A6D990D45}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5ED6FEB4-5A9D-4E43-92AF-DD61473EDA76}" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{16C53853-3EB1-423F-8DD9-8230743547A8}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{122CE432-33D8-4E02-A543-8CEB900A9A6D}" name="Column4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9CF1C6CA-B2CA-4B89-8380-AEE896344D4F}" name="Column5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{53BA7146-F0B3-4F63-8D49-5E47FA1C46D0}" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{4FF1A8DB-624B-4123-A716-0908209DBEE5}" name="Column7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E60F7BA9-0EA5-45F8-8D4A-D389E3EACBF4}" name="Column8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8BC8B568-96D7-4D64-B997-3A3D029FD4DB}" name="Column9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{697ABB58-1C56-426D-AB32-1219CF2C7B23}" name="Column10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C1620-EBFB-4153-8B09-9F8B8A4237A9}">
-  <dimension ref="A1:S211"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1274,7 @@
     <col min="19" max="19" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
@@ -1296,8 +1337,32 @@
       <c r="J2" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1328,8 +1393,43 @@
       <c r="J3" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M3" s="2">
+        <f>_xlfn.STDEV.P(C3:C211)</f>
+        <v>259.639540800666</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:T3" si="0">_xlfn.STDEV.P(D3:D211)</f>
+        <v>3869.4523430377594</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>11698.476757486713</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="0"/>
+        <v>40.531407463313762</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7999470759895129</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="0"/>
+        <v>25.935049091241844</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>160.4455092218366</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="0"/>
+        <v>154.38642594867036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1360,8 +1460,35 @@
       <c r="J4" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" s="2">
+        <v>259.639540800666</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3869.4523430377599</v>
+      </c>
+      <c r="O4" s="2">
+        <v>11698.4767574867</v>
+      </c>
+      <c r="P4" s="2">
+        <v>40.531407463313798</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6.7999470759895102</v>
+      </c>
+      <c r="R4" s="2">
+        <v>25.935049091241801</v>
+      </c>
+      <c r="S4" s="2">
+        <v>160.445509221837</v>
+      </c>
+      <c r="T4">
+        <v>154.38642594867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1520,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1424,8 +1551,43 @@
       <c r="J6" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="2">
+        <f>AVERAGE(C3:C211)</f>
+        <v>203.82296650717703</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:T6" si="1">AVERAGE(D3:D211)</f>
+        <v>2867.9808612440193</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>11796.153110047846</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="1"/>
+        <v>25.205741626794257</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6985645933014357</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="1"/>
+        <v>18.267942583732058</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="1"/>
+        <v>105.62200956937799</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="1"/>
+        <v>99.330143540669852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1456,8 +1618,35 @@
       <c r="J7" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M7" s="2">
+        <v>203.822966507177</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2867.9808612440202</v>
+      </c>
+      <c r="O7" s="2">
+        <v>11796.153110047801</v>
+      </c>
+      <c r="P7" s="2">
+        <v>25.2057416267943</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4.6985645933014402</v>
+      </c>
+      <c r="R7" s="2">
+        <v>18.267942583732101</v>
+      </c>
+      <c r="S7" s="2">
+        <v>105.62200956937799</v>
+      </c>
+      <c r="T7">
+        <v>99.330143540669894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1678,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1710,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1742,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1774,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1806,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
